--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-encounter.xlsx
@@ -261,7 +261,7 @@
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。エンカウンターと表現される。
-【JP-Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
+【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
